--- a/AccessibleDashboardData/2021-08-17.xlsx
+++ b/AccessibleDashboardData/2021-08-17.xlsx
@@ -8418,7 +8418,7 @@
         <v>243</v>
       </c>
       <c r="B242">
-        <v>48260</v>
+        <v>48313</v>
       </c>
       <c r="C242">
         <v>3251</v>
@@ -23483,7 +23483,7 @@
         <v>799</v>
       </c>
       <c r="B536">
-        <v>2834082</v>
+        <v>2834135</v>
       </c>
       <c r="C536">
         <v>20123</v>
